--- a/chart_pretty.xlsx
+++ b/chart_pretty.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -36,31 +33,31 @@
     <t>bandwidth_original</t>
   </si>
   <si>
-    <t>og</t>
-  </si>
-  <si>
     <t>conv</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>acc_prune_stage_1</t>
+    <t>acc_prune_s1</t>
   </si>
   <si>
-    <t>time_prune_stage_1</t>
+    <t>time_prune_s1</t>
   </si>
   <si>
-    <t>bandwidth_prune_stage_1</t>
+    <t>bandwidth_prune_s1</t>
   </si>
   <si>
-    <t>acc_prune_stage_2</t>
+    <t>acc_prune_s2</t>
   </si>
   <si>
-    <t>time_prune_stage_2</t>
+    <t>time_prune_s2</t>
   </si>
   <si>
-    <t>bandwidth_prune_stage_2</t>
+    <t>bandwidth_prune_s2</t>
+  </si>
+  <si>
+    <t>og image</t>
   </si>
 </sst>
 </file>
@@ -201,328 +198,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>bandwidth_original</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet!$B$22:$T$22</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>og</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$B$4:$T$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>bandwidth_prune_stage_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet!$B$22:$T$22</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>og</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$B$11:$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23552</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30720</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7680</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3584</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5440</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5376</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4544</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1136</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1888</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1648</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1744</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
@@ -531,7 +206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bandwidth_prune_stage_2</c:v>
+                  <c:v>bandwidth_prune_s2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -552,7 +227,7 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>og</c:v>
+                  <c:v>og image</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>conv</c:v>
@@ -694,338 +369,376 @@
         <c:gapWidth val="219"/>
         <c:axId val="1601761776"/>
         <c:axId val="1601770096"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>bandwidth_original</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>og image</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$4:$T$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>3072</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>32768</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32768</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>16384</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>512</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>bandwidth_prune_s1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>og image</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$11:$T$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>3072</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>23552</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30720</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7680</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14592</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14336</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3584</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5440</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5376</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4544</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1136</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1888</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1648</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1744</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>436</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>440</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>420</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>420</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>105</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>time_original</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet!$B$22:$T$22</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>og</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$B$3:$T$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1628271006944451E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1916175329861109E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5650619878472229E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9516181822916666E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3842585138888901E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6241808055555567E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8572445659722207E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.105515652083333E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3430735609374999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.357188464756944E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4788019680555551E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6975076213541669E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9279140723958331E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.935680719444444E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1247577178819449E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3101203057291669E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4909345161458329E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4926623130208339E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>time_prune_stage_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet!$B$22:$T$22</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>og</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>pool</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>conv</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$B$10:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2419224826388879E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6471926215277775E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2721019097222234E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2142026093750001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.715415170138889E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7858001666666661E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9539853888888891E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.196694536458333E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.412378138888888E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4358575659722218E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5316158055555559E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.6454694010416661E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7550967708333332E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7650189079861109E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.8465377083333331E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9256506840277768E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.9999275850694442E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.002142017361111E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1035,7 +748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time_prune_stage_2</c:v>
+                  <c:v>time_prune_s2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1058,7 +771,7 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>og</c:v>
+                  <c:v>og image</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>conv</c:v>
@@ -1202,6 +915,378 @@
         <c:smooth val="0"/>
         <c:axId val="1601766768"/>
         <c:axId val="1601763024"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>time_original</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>og image</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$3:$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.1628271006944451E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.1916175329861109E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.5650619878472229E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.9516181822916666E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.3842585138888901E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.6241808055555567E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.8572445659722207E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.105515652083333E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.3430735609374999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.357188464756944E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.4788019680555551E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.6975076213541669E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.9279140723958331E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.935680719444444E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.1247577178819449E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.3101203057291669E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.4909345161458329E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.4926623130208339E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>time_prune_s1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>og image</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>conv</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>pool</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet!$B$10:$T$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2419224826388879E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.6471926215277775E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.2721019097222234E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2142026093750001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.715415170138889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.7858001666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.9539853888888891E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.196694536458333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.412378138888888E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.4358575659722218E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.5316158055555559E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.6454694010416661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.7550967708333332E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.7650189079861109E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.8465377083333331E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9256506840277768E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.9999275850694442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.002142017361111E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1601761776"/>
@@ -1210,63 +1295,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>layers</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2196,451 +2224,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>time_original</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>4.1628271006944451E-4</v>
-          </cell>
-          <cell r="D3">
-            <v>3.1916175329861109E-3</v>
-          </cell>
-          <cell r="E3">
-            <v>3.5650619878472229E-3</v>
-          </cell>
-          <cell r="F3">
-            <v>4.9516181822916666E-3</v>
-          </cell>
-          <cell r="G3">
-            <v>7.3842585138888901E-3</v>
-          </cell>
-          <cell r="H3">
-            <v>7.6241808055555567E-3</v>
-          </cell>
-          <cell r="I3">
-            <v>8.8572445659722207E-3</v>
-          </cell>
-          <cell r="J3">
-            <v>1.105515652083333E-2</v>
-          </cell>
-          <cell r="K3">
-            <v>1.3430735609374999E-2</v>
-          </cell>
-          <cell r="L3">
-            <v>1.357188464756944E-2</v>
-          </cell>
-          <cell r="M3">
-            <v>1.4788019680555551E-2</v>
-          </cell>
-          <cell r="N3">
-            <v>1.6975076213541669E-2</v>
-          </cell>
-          <cell r="O3">
-            <v>1.9279140723958331E-2</v>
-          </cell>
-          <cell r="P3">
-            <v>1.935680719444444E-2</v>
-          </cell>
-          <cell r="Q3">
-            <v>2.1247577178819449E-2</v>
-          </cell>
-          <cell r="R3">
-            <v>2.3101203057291669E-2</v>
-          </cell>
-          <cell r="S3">
-            <v>2.4909345161458329E-2</v>
-          </cell>
-          <cell r="T3">
-            <v>2.4926623130208339E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>bandwidth_original</v>
-          </cell>
-          <cell r="B4">
-            <v>3072</v>
-          </cell>
-          <cell r="C4">
-            <v>65536</v>
-          </cell>
-          <cell r="D4">
-            <v>65536</v>
-          </cell>
-          <cell r="E4">
-            <v>16384</v>
-          </cell>
-          <cell r="F4">
-            <v>32768</v>
-          </cell>
-          <cell r="G4">
-            <v>32768</v>
-          </cell>
-          <cell r="H4">
-            <v>8192</v>
-          </cell>
-          <cell r="I4">
-            <v>16384</v>
-          </cell>
-          <cell r="J4">
-            <v>16384</v>
-          </cell>
-          <cell r="K4">
-            <v>16384</v>
-          </cell>
-          <cell r="L4">
-            <v>4096</v>
-          </cell>
-          <cell r="M4">
-            <v>8192</v>
-          </cell>
-          <cell r="N4">
-            <v>8192</v>
-          </cell>
-          <cell r="O4">
-            <v>8192</v>
-          </cell>
-          <cell r="P4">
-            <v>2048</v>
-          </cell>
-          <cell r="Q4">
-            <v>2048</v>
-          </cell>
-          <cell r="R4">
-            <v>2048</v>
-          </cell>
-          <cell r="S4">
-            <v>2048</v>
-          </cell>
-          <cell r="T4">
-            <v>512</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>time_prune_stage_1</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>2.2419224826388879E-4</v>
-          </cell>
-          <cell r="D10">
-            <v>7.6471926215277775E-4</v>
-          </cell>
-          <cell r="E10">
-            <v>9.2721019097222234E-4</v>
-          </cell>
-          <cell r="F10">
-            <v>1.2142026093750001E-3</v>
-          </cell>
-          <cell r="G10">
-            <v>1.715415170138889E-3</v>
-          </cell>
-          <cell r="H10">
-            <v>1.7858001666666661E-3</v>
-          </cell>
-          <cell r="I10">
-            <v>1.9539853888888891E-3</v>
-          </cell>
-          <cell r="J10">
-            <v>2.196694536458333E-3</v>
-          </cell>
-          <cell r="K10">
-            <v>2.412378138888888E-3</v>
-          </cell>
-          <cell r="L10">
-            <v>2.4358575659722218E-3</v>
-          </cell>
-          <cell r="M10">
-            <v>2.5316158055555559E-3</v>
-          </cell>
-          <cell r="N10">
-            <v>2.6454694010416661E-3</v>
-          </cell>
-          <cell r="O10">
-            <v>2.7550967708333332E-3</v>
-          </cell>
-          <cell r="P10">
-            <v>2.7650189079861109E-3</v>
-          </cell>
-          <cell r="Q10">
-            <v>2.8465377083333331E-3</v>
-          </cell>
-          <cell r="R10">
-            <v>2.9256506840277768E-3</v>
-          </cell>
-          <cell r="S10">
-            <v>2.9999275850694442E-3</v>
-          </cell>
-          <cell r="T10">
-            <v>3.002142017361111E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>bandwidth_prune_stage_1</v>
-          </cell>
-          <cell r="B11">
-            <v>3072</v>
-          </cell>
-          <cell r="C11">
-            <v>23552</v>
-          </cell>
-          <cell r="D11">
-            <v>30720</v>
-          </cell>
-          <cell r="E11">
-            <v>7680</v>
-          </cell>
-          <cell r="F11">
-            <v>14592</v>
-          </cell>
-          <cell r="G11">
-            <v>14336</v>
-          </cell>
-          <cell r="H11">
-            <v>3584</v>
-          </cell>
-          <cell r="I11">
-            <v>5440</v>
-          </cell>
-          <cell r="J11">
-            <v>5376</v>
-          </cell>
-          <cell r="K11">
-            <v>4544</v>
-          </cell>
-          <cell r="L11">
-            <v>1136</v>
-          </cell>
-          <cell r="M11">
-            <v>1888</v>
-          </cell>
-          <cell r="N11">
-            <v>1648</v>
-          </cell>
-          <cell r="O11">
-            <v>1744</v>
-          </cell>
-          <cell r="P11">
-            <v>436</v>
-          </cell>
-          <cell r="Q11">
-            <v>440</v>
-          </cell>
-          <cell r="R11">
-            <v>420</v>
-          </cell>
-          <cell r="S11">
-            <v>420</v>
-          </cell>
-          <cell r="T11">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>time_prune_stage_2</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>2.6566196527777778E-4</v>
-          </cell>
-          <cell r="D17">
-            <v>7.6857743055555551E-4</v>
-          </cell>
-          <cell r="E17">
-            <v>9.0475690277777771E-4</v>
-          </cell>
-          <cell r="F17">
-            <v>1.1773394131944441E-3</v>
-          </cell>
-          <cell r="G17">
-            <v>1.629685324652778E-3</v>
-          </cell>
-          <cell r="H17">
-            <v>1.688005819444444E-3</v>
-          </cell>
-          <cell r="I17">
-            <v>1.8456494791666671E-3</v>
-          </cell>
-          <cell r="J17">
-            <v>2.0802512916666661E-3</v>
-          </cell>
-          <cell r="K17">
-            <v>2.2724626944444441E-3</v>
-          </cell>
-          <cell r="L17">
-            <v>2.2927815798611112E-3</v>
-          </cell>
-          <cell r="M17">
-            <v>2.3740296423611111E-3</v>
-          </cell>
-          <cell r="N17">
-            <v>2.4893353593749999E-3</v>
-          </cell>
-          <cell r="O17">
-            <v>2.5856604184027782E-3</v>
-          </cell>
-          <cell r="P17">
-            <v>2.5945689756944439E-3</v>
-          </cell>
-          <cell r="Q17">
-            <v>2.669612428819444E-3</v>
-          </cell>
-          <cell r="R17">
-            <v>2.7441154218749999E-3</v>
-          </cell>
-          <cell r="S17">
-            <v>2.814459696180556E-3</v>
-          </cell>
-          <cell r="T17">
-            <v>2.8163123524305549E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>bandwidth_prune_stage_2</v>
-          </cell>
-          <cell r="B18">
-            <v>3072</v>
-          </cell>
-          <cell r="C18">
-            <v>3072</v>
-          </cell>
-          <cell r="D18">
-            <v>6144</v>
-          </cell>
-          <cell r="E18">
-            <v>1536</v>
-          </cell>
-          <cell r="F18">
-            <v>2304</v>
-          </cell>
-          <cell r="G18">
-            <v>2048</v>
-          </cell>
-          <cell r="H18">
-            <v>512</v>
-          </cell>
-          <cell r="I18">
-            <v>832</v>
-          </cell>
-          <cell r="J18">
-            <v>768</v>
-          </cell>
-          <cell r="K18">
-            <v>704</v>
-          </cell>
-          <cell r="L18">
-            <v>176</v>
-          </cell>
-          <cell r="M18">
-            <v>352</v>
-          </cell>
-          <cell r="N18">
-            <v>304</v>
-          </cell>
-          <cell r="O18">
-            <v>288</v>
-          </cell>
-          <cell r="P18">
-            <v>72</v>
-          </cell>
-          <cell r="Q18">
-            <v>76</v>
-          </cell>
-          <cell r="R18">
-            <v>84</v>
-          </cell>
-          <cell r="S18">
-            <v>84</v>
-          </cell>
-          <cell r="T18">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>og</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>pool</v>
-          </cell>
-          <cell r="F22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>pool</v>
-          </cell>
-          <cell r="I22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="J22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="K22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="L22" t="str">
-            <v>pool</v>
-          </cell>
-          <cell r="M22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="N22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="O22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="P22" t="str">
-            <v>pool</v>
-          </cell>
-          <cell r="Q22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="R22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="S22" t="str">
-            <v>conv</v>
-          </cell>
-          <cell r="T22" t="str">
-            <v>pool</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2928,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3231,7 +2814,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>85.09</v>
@@ -3290,7 +2873,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3352,7 +2935,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>3072</v>
@@ -3470,7 +3053,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>86.57</v>
@@ -3529,7 +3112,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3591,7 +3174,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>3072</v>
@@ -3653,61 +3236,61 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
         <v>5</v>
       </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="Q22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s">
         <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/chart_pretty.xlsx
+++ b/chart_pretty.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -140,7 +143,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -153,10 +156,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US"/>
               <a:t>bandwidth/time</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -174,7 +177,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -198,6 +201,334 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bandwidth_original</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>og image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>pool</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bandwidth_prune_s1</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>og image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>pool</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
@@ -369,376 +700,345 @@
         <c:gapWidth val="219"/>
         <c:axId val="1601761776"/>
         <c:axId val="1601770096"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$A$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>bandwidth_original</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>og image</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$4:$T$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>3072</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>65536</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>65536</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16384</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>32768</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>32768</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>8192</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>16384</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>16384</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>16384</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4096</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>8192</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>8192</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>8192</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2048</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2048</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2048</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2048</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>512</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>bandwidth_prune_s1</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>og image</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$11:$T$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>3072</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>23552</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30720</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>7680</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>14592</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>14336</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3584</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5440</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5376</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4544</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1136</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1888</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1648</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1744</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>436</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>420</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>420</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>105</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time_original</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>og image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>pool</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31269649999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.195789401041667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6190220052083339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9673901614583329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4158651059027774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6550404322916661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8280575486111115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.026055211805559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.35302809027778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.49793984895833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.669497305555559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.87689825694444</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.205761611111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.284447951388881</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.153220923611109</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.003219972222219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.80391318402777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.824138999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time_prune_s1</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>og image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pool</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>conv</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>pool</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$10:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16135423784722219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70360617013888882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84648819444444434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.129266887152778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.618272729166667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.687166574652778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8675580086805561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1227614548611111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3296633888888891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.353591822916667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4395503854166671</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5535207795138888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6491792065972222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.659316967013889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7372391180555549</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.813186053819444</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8871393715277791</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8893057881944451</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CEE9-4F4B-80B7-0D64856DEAAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -840,58 +1140,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6566196527777778E-4</c:v>
+                  <c:v>0.15770505902777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6857743055555551E-4</c:v>
+                  <c:v>0.62296373784722225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0475690277777771E-4</c:v>
+                  <c:v>0.76204471701388887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1773394131944441E-3</c:v>
+                  <c:v>0.99857110590277764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.629685324652778E-3</c:v>
+                  <c:v>1.4293730451388891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.688005819444444E-3</c:v>
+                  <c:v>1.488095822916667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8456494791666671E-3</c:v>
+                  <c:v>1.640996751736111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0802512916666661E-3</c:v>
+                  <c:v>1.8680692934027769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2724626944444441E-3</c:v>
+                  <c:v>2.054396899305555</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2927815798611112E-3</c:v>
+                  <c:v>2.075141029513889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3740296423611111E-3</c:v>
+                  <c:v>2.1566824253472219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4893353593749999E-3</c:v>
+                  <c:v>2.2639817135416669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5856604184027782E-3</c:v>
+                  <c:v>2.3581944374999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5945689756944439E-3</c:v>
+                  <c:v>2.3677407204861112</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.669612428819444E-3</c:v>
+                  <c:v>2.440125642361112</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7441154218749999E-3</c:v>
+                  <c:v>2.5139573125000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.814459696180556E-3</c:v>
+                  <c:v>2.5801460416666671</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8163123524305549E-3</c:v>
+                  <c:v>2.582103788194444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,378 +1215,7 @@
         <c:smooth val="0"/>
         <c:axId val="1601766768"/>
         <c:axId val="1601763024"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$A$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>time_original</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>og image</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$3:$T$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.1628271006944451E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.1916175329861109E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.5650619878472229E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.9516181822916666E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>7.3842585138888901E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7.6241808055555567E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8.8572445659722207E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1.105515652083333E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1.3430735609374999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.357188464756944E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1.4788019680555551E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1.6975076213541669E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1.9279140723958331E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1.935680719444444E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.1247577178819449E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2.3101203057291669E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2.4909345161458329E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2.4926623130208339E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>time_prune_s1</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$22:$T$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>og image</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>conv</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>pool</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet!$B$10:$T$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="19"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2.2419224826388879E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.6471926215277775E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>9.2721019097222234E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.2142026093750001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.715415170138889E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.7858001666666661E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1.9539853888888891E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.196694536458333E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.412378138888888E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.4358575659722218E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.5316158055555559E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.6454694010416661E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.7550967708333332E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.7650189079861109E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.8465377083333331E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2.9256506840277768E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2.9999275850694442E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3.002142017361111E-3</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-CEE9-4F4B-80B7-0D64856DEAAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1601761776"/>
@@ -1317,7 +1246,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1367,7 +1296,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1380,10 +1309,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>data volume (B)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1401,7 +1330,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1433,7 +1362,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1466,7 +1395,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1479,10 +1408,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time elapsed (</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>time elapsed (s)</a:t>
+                  <a:t>m</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1500,7 +1437,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1532,7 +1469,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1593,7 +1530,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1633,7 +1570,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1600"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -2193,16 +2130,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>582386</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2222,6 +2159,451 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>time_original</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0.31269649999999999</v>
+          </cell>
+          <cell r="D3">
+            <v>3.195789401041667</v>
+          </cell>
+          <cell r="E3">
+            <v>3.6190220052083339</v>
+          </cell>
+          <cell r="F3">
+            <v>4.9673901614583329</v>
+          </cell>
+          <cell r="G3">
+            <v>7.4158651059027774</v>
+          </cell>
+          <cell r="H3">
+            <v>7.6550404322916661</v>
+          </cell>
+          <cell r="I3">
+            <v>8.8280575486111115</v>
+          </cell>
+          <cell r="J3">
+            <v>11.026055211805559</v>
+          </cell>
+          <cell r="K3">
+            <v>13.35302809027778</v>
+          </cell>
+          <cell r="L3">
+            <v>13.49793984895833</v>
+          </cell>
+          <cell r="M3">
+            <v>14.669497305555559</v>
+          </cell>
+          <cell r="N3">
+            <v>16.87689825694444</v>
+          </cell>
+          <cell r="O3">
+            <v>19.205761611111111</v>
+          </cell>
+          <cell r="P3">
+            <v>19.284447951388881</v>
+          </cell>
+          <cell r="Q3">
+            <v>21.153220923611109</v>
+          </cell>
+          <cell r="R3">
+            <v>23.003219972222219</v>
+          </cell>
+          <cell r="S3">
+            <v>24.80391318402777</v>
+          </cell>
+          <cell r="T3">
+            <v>24.824138999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>bandwidth_original</v>
+          </cell>
+          <cell r="B4">
+            <v>3072</v>
+          </cell>
+          <cell r="C4">
+            <v>65536</v>
+          </cell>
+          <cell r="D4">
+            <v>65536</v>
+          </cell>
+          <cell r="E4">
+            <v>16384</v>
+          </cell>
+          <cell r="F4">
+            <v>32768</v>
+          </cell>
+          <cell r="G4">
+            <v>32768</v>
+          </cell>
+          <cell r="H4">
+            <v>8192</v>
+          </cell>
+          <cell r="I4">
+            <v>16384</v>
+          </cell>
+          <cell r="J4">
+            <v>16384</v>
+          </cell>
+          <cell r="K4">
+            <v>16384</v>
+          </cell>
+          <cell r="L4">
+            <v>4096</v>
+          </cell>
+          <cell r="M4">
+            <v>8192</v>
+          </cell>
+          <cell r="N4">
+            <v>8192</v>
+          </cell>
+          <cell r="O4">
+            <v>8192</v>
+          </cell>
+          <cell r="P4">
+            <v>2048</v>
+          </cell>
+          <cell r="Q4">
+            <v>2048</v>
+          </cell>
+          <cell r="R4">
+            <v>2048</v>
+          </cell>
+          <cell r="S4">
+            <v>2048</v>
+          </cell>
+          <cell r="T4">
+            <v>512</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>time_prune_s1</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>0.16135423784722219</v>
+          </cell>
+          <cell r="D10">
+            <v>0.70360617013888882</v>
+          </cell>
+          <cell r="E10">
+            <v>0.84648819444444434</v>
+          </cell>
+          <cell r="F10">
+            <v>1.129266887152778</v>
+          </cell>
+          <cell r="G10">
+            <v>1.618272729166667</v>
+          </cell>
+          <cell r="H10">
+            <v>1.687166574652778</v>
+          </cell>
+          <cell r="I10">
+            <v>1.8675580086805561</v>
+          </cell>
+          <cell r="J10">
+            <v>2.1227614548611111</v>
+          </cell>
+          <cell r="K10">
+            <v>2.3296633888888891</v>
+          </cell>
+          <cell r="L10">
+            <v>2.353591822916667</v>
+          </cell>
+          <cell r="M10">
+            <v>2.4395503854166671</v>
+          </cell>
+          <cell r="N10">
+            <v>2.5535207795138888</v>
+          </cell>
+          <cell r="O10">
+            <v>2.6491792065972222</v>
+          </cell>
+          <cell r="P10">
+            <v>2.659316967013889</v>
+          </cell>
+          <cell r="Q10">
+            <v>2.7372391180555549</v>
+          </cell>
+          <cell r="R10">
+            <v>2.813186053819444</v>
+          </cell>
+          <cell r="S10">
+            <v>2.8871393715277791</v>
+          </cell>
+          <cell r="T10">
+            <v>2.8893057881944451</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>bandwidth_prune_s1</v>
+          </cell>
+          <cell r="B11">
+            <v>3072</v>
+          </cell>
+          <cell r="C11">
+            <v>23552</v>
+          </cell>
+          <cell r="D11">
+            <v>30720</v>
+          </cell>
+          <cell r="E11">
+            <v>7680</v>
+          </cell>
+          <cell r="F11">
+            <v>14592</v>
+          </cell>
+          <cell r="G11">
+            <v>14336</v>
+          </cell>
+          <cell r="H11">
+            <v>3584</v>
+          </cell>
+          <cell r="I11">
+            <v>5440</v>
+          </cell>
+          <cell r="J11">
+            <v>5376</v>
+          </cell>
+          <cell r="K11">
+            <v>4544</v>
+          </cell>
+          <cell r="L11">
+            <v>1136</v>
+          </cell>
+          <cell r="M11">
+            <v>1888</v>
+          </cell>
+          <cell r="N11">
+            <v>1648</v>
+          </cell>
+          <cell r="O11">
+            <v>1744</v>
+          </cell>
+          <cell r="P11">
+            <v>436</v>
+          </cell>
+          <cell r="Q11">
+            <v>440</v>
+          </cell>
+          <cell r="R11">
+            <v>420</v>
+          </cell>
+          <cell r="S11">
+            <v>420</v>
+          </cell>
+          <cell r="T11">
+            <v>105</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>time_prune_s2</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+          <cell r="C17">
+            <v>0.15770505902777779</v>
+          </cell>
+          <cell r="D17">
+            <v>0.62296373784722225</v>
+          </cell>
+          <cell r="E17">
+            <v>0.76204471701388887</v>
+          </cell>
+          <cell r="F17">
+            <v>0.99857110590277764</v>
+          </cell>
+          <cell r="G17">
+            <v>1.4293730451388891</v>
+          </cell>
+          <cell r="H17">
+            <v>1.488095822916667</v>
+          </cell>
+          <cell r="I17">
+            <v>1.640996751736111</v>
+          </cell>
+          <cell r="J17">
+            <v>1.8680692934027769</v>
+          </cell>
+          <cell r="K17">
+            <v>2.054396899305555</v>
+          </cell>
+          <cell r="L17">
+            <v>2.075141029513889</v>
+          </cell>
+          <cell r="M17">
+            <v>2.1566824253472219</v>
+          </cell>
+          <cell r="N17">
+            <v>2.2639817135416669</v>
+          </cell>
+          <cell r="O17">
+            <v>2.3581944374999999</v>
+          </cell>
+          <cell r="P17">
+            <v>2.3677407204861112</v>
+          </cell>
+          <cell r="Q17">
+            <v>2.440125642361112</v>
+          </cell>
+          <cell r="R17">
+            <v>2.5139573125000001</v>
+          </cell>
+          <cell r="S17">
+            <v>2.5801460416666671</v>
+          </cell>
+          <cell r="T17">
+            <v>2.582103788194444</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>bandwidth_prune_s2</v>
+          </cell>
+          <cell r="B18">
+            <v>3072</v>
+          </cell>
+          <cell r="C18">
+            <v>3072</v>
+          </cell>
+          <cell r="D18">
+            <v>6144</v>
+          </cell>
+          <cell r="E18">
+            <v>1536</v>
+          </cell>
+          <cell r="F18">
+            <v>2304</v>
+          </cell>
+          <cell r="G18">
+            <v>2048</v>
+          </cell>
+          <cell r="H18">
+            <v>512</v>
+          </cell>
+          <cell r="I18">
+            <v>832</v>
+          </cell>
+          <cell r="J18">
+            <v>768</v>
+          </cell>
+          <cell r="K18">
+            <v>704</v>
+          </cell>
+          <cell r="L18">
+            <v>176</v>
+          </cell>
+          <cell r="M18">
+            <v>352</v>
+          </cell>
+          <cell r="N18">
+            <v>304</v>
+          </cell>
+          <cell r="O18">
+            <v>288</v>
+          </cell>
+          <cell r="P18">
+            <v>72</v>
+          </cell>
+          <cell r="Q18">
+            <v>76</v>
+          </cell>
+          <cell r="R18">
+            <v>84</v>
+          </cell>
+          <cell r="S18">
+            <v>84</v>
+          </cell>
+          <cell r="T18">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>og image</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>pool</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>pool</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>pool</v>
+          </cell>
+          <cell r="M22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="P22" t="str">
+            <v>pool</v>
+          </cell>
+          <cell r="Q22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="R22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="S22" t="str">
+            <v>conv</v>
+          </cell>
+          <cell r="T22" t="str">
+            <v>pool</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2509,15 +2891,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>64</v>
       </c>
@@ -2573,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +3014,7 @@
         <v>88.23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2640,61 +3022,61 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.1628271006944451E-4</v>
+        <v>0.31269649999999999</v>
       </c>
       <c r="D3">
-        <v>3.1916175329861109E-3</v>
+        <v>3.195789401041667</v>
       </c>
       <c r="E3">
-        <v>3.5650619878472229E-3</v>
+        <v>3.6190220052083339</v>
       </c>
       <c r="F3">
-        <v>4.9516181822916666E-3</v>
+        <v>4.9673901614583329</v>
       </c>
       <c r="G3">
-        <v>7.3842585138888901E-3</v>
+        <v>7.4158651059027774</v>
       </c>
       <c r="H3">
-        <v>7.6241808055555567E-3</v>
+        <v>7.6550404322916661</v>
       </c>
       <c r="I3">
-        <v>8.8572445659722207E-3</v>
+        <v>8.8280575486111115</v>
       </c>
       <c r="J3">
-        <v>1.105515652083333E-2</v>
+        <v>11.026055211805559</v>
       </c>
       <c r="K3">
-        <v>1.3430735609374999E-2</v>
+        <v>13.35302809027778</v>
       </c>
       <c r="L3">
-        <v>1.357188464756944E-2</v>
+        <v>13.49793984895833</v>
       </c>
       <c r="M3">
-        <v>1.4788019680555551E-2</v>
+        <v>14.669497305555559</v>
       </c>
       <c r="N3">
-        <v>1.6975076213541669E-2</v>
+        <v>16.87689825694444</v>
       </c>
       <c r="O3">
-        <v>1.9279140723958331E-2</v>
+        <v>19.205761611111111</v>
       </c>
       <c r="P3">
-        <v>1.935680719444444E-2</v>
+        <v>19.284447951388881</v>
       </c>
       <c r="Q3">
-        <v>2.1247577178819449E-2</v>
+        <v>21.153220923611109</v>
       </c>
       <c r="R3">
-        <v>2.3101203057291669E-2</v>
+        <v>23.003219972222219</v>
       </c>
       <c r="S3">
-        <v>2.4909345161458329E-2</v>
+        <v>24.80391318402777</v>
       </c>
       <c r="T3">
-        <v>2.4926623130208339E-2</v>
+        <v>24.824138999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2756,7 +3138,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>23</v>
       </c>
@@ -2812,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2871,7 +3253,7 @@
         <v>85.09</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2879,61 +3261,61 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.2419224826388879E-4</v>
+        <v>0.16135423784722219</v>
       </c>
       <c r="D10">
-        <v>7.6471926215277775E-4</v>
+        <v>0.70360617013888882</v>
       </c>
       <c r="E10">
-        <v>9.2721019097222234E-4</v>
+        <v>0.84648819444444434</v>
       </c>
       <c r="F10">
-        <v>1.2142026093750001E-3</v>
+        <v>1.129266887152778</v>
       </c>
       <c r="G10">
-        <v>1.715415170138889E-3</v>
+        <v>1.618272729166667</v>
       </c>
       <c r="H10">
-        <v>1.7858001666666661E-3</v>
+        <v>1.687166574652778</v>
       </c>
       <c r="I10">
-        <v>1.9539853888888891E-3</v>
+        <v>1.8675580086805561</v>
       </c>
       <c r="J10">
-        <v>2.196694536458333E-3</v>
+        <v>2.1227614548611111</v>
       </c>
       <c r="K10">
-        <v>2.412378138888888E-3</v>
+        <v>2.3296633888888891</v>
       </c>
       <c r="L10">
-        <v>2.4358575659722218E-3</v>
+        <v>2.353591822916667</v>
       </c>
       <c r="M10">
-        <v>2.5316158055555559E-3</v>
+        <v>2.4395503854166671</v>
       </c>
       <c r="N10">
-        <v>2.6454694010416661E-3</v>
+        <v>2.5535207795138888</v>
       </c>
       <c r="O10">
-        <v>2.7550967708333332E-3</v>
+        <v>2.6491792065972222</v>
       </c>
       <c r="P10">
-        <v>2.7650189079861109E-3</v>
+        <v>2.659316967013889</v>
       </c>
       <c r="Q10">
-        <v>2.8465377083333331E-3</v>
+        <v>2.7372391180555549</v>
       </c>
       <c r="R10">
-        <v>2.9256506840277768E-3</v>
+        <v>2.813186053819444</v>
       </c>
       <c r="S10">
-        <v>2.9999275850694442E-3</v>
+        <v>2.8871393715277791</v>
       </c>
       <c r="T10">
-        <v>3.002142017361111E-3</v>
+        <v>2.8893057881944451</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2995,7 +3377,163 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>C10/C3</f>
+        <v>0.51600909459243127</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:T13" si="0">D10/D3</f>
+        <v>0.22016662609543311</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.23389970915518518</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.22733605584572128</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.21821765984909525</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.22039943349426516</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.21154801023860256</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.19252229506236082</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.1744670477092081</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.17436674405526409</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.1663008850680093</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.15130272995887595</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.1379366910950614</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.13789956413153964</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.1294005829154965</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.12229531592605455</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.11639854365346365</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.11639097687111909</v>
+      </c>
+      <c r="V12">
+        <f>AVERAGE(C12:T12)</f>
+        <v>0.1926032203176215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C11/C4</f>
+        <v>0.359375</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.4453125</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.33203125</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.328125</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.27734375</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.27734375</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.23046875</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.201171875</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.212890625</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.212890625</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0.21484375</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.205078125</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.205078125</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.205078125</v>
+      </c>
+      <c r="V13">
+        <f>AVERAGE(C13:T13)</f>
+        <v>0.306640625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>3</v>
       </c>
@@ -3051,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3110,7 +3648,7 @@
         <v>87.78</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3118,61 +3656,61 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.6566196527777778E-4</v>
+        <v>0.15770505902777779</v>
       </c>
       <c r="D17">
-        <v>7.6857743055555551E-4</v>
+        <v>0.62296373784722225</v>
       </c>
       <c r="E17">
-        <v>9.0475690277777771E-4</v>
+        <v>0.76204471701388887</v>
       </c>
       <c r="F17">
-        <v>1.1773394131944441E-3</v>
+        <v>0.99857110590277764</v>
       </c>
       <c r="G17">
-        <v>1.629685324652778E-3</v>
+        <v>1.4293730451388891</v>
       </c>
       <c r="H17">
-        <v>1.688005819444444E-3</v>
+        <v>1.488095822916667</v>
       </c>
       <c r="I17">
-        <v>1.8456494791666671E-3</v>
+        <v>1.640996751736111</v>
       </c>
       <c r="J17">
-        <v>2.0802512916666661E-3</v>
+        <v>1.8680692934027769</v>
       </c>
       <c r="K17">
-        <v>2.2724626944444441E-3</v>
+        <v>2.054396899305555</v>
       </c>
       <c r="L17">
-        <v>2.2927815798611112E-3</v>
+        <v>2.075141029513889</v>
       </c>
       <c r="M17">
-        <v>2.3740296423611111E-3</v>
+        <v>2.1566824253472219</v>
       </c>
       <c r="N17">
-        <v>2.4893353593749999E-3</v>
+        <v>2.2639817135416669</v>
       </c>
       <c r="O17">
-        <v>2.5856604184027782E-3</v>
+        <v>2.3581944374999999</v>
       </c>
       <c r="P17">
-        <v>2.5945689756944439E-3</v>
+        <v>2.3677407204861112</v>
       </c>
       <c r="Q17">
-        <v>2.669612428819444E-3</v>
+        <v>2.440125642361112</v>
       </c>
       <c r="R17">
-        <v>2.7441154218749999E-3</v>
+        <v>2.5139573125000001</v>
       </c>
       <c r="S17">
-        <v>2.814459696180556E-3</v>
+        <v>2.5801460416666671</v>
       </c>
       <c r="T17">
-        <v>2.8163123524305549E-3</v>
+        <v>2.582103788194444</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3234,7 +3772,163 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>C17/C3</f>
+        <v>0.50433906048765431</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:T20" si="1">D17/D3</f>
+        <v>0.19493266284823629</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.21056647788192179</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.20102530170684557</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.19274528658850018</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.19439424730395322</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.18588423814639535</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.16942317606052268</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.15385251086241203</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.1537376112751038</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.14701815477551872</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0.13414678924251336</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.12278578091564531</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>0.12277980300263584</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0.11535480346813082</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0.10928719177296725</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0.10402173328554165</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>0.10401584474669773</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(C19:T19)</f>
+        <v>0.17335059302062203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>C18/C4</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>5.078125E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>4.1015625E-2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>4.1015625E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>4.1015625E-2</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(C20:T20)</f>
+        <v>5.1323784722222224E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>12</v>
       </c>
